--- a/3d-single-material/input.xlsx
+++ b/3d-single-material/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\University\MSc Thesis\topology-optimization\3d-single-material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5314B346-6A96-4154-B72E-B977E9B9DF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9D6BD7-13EB-48F3-BE19-CF9E264BFE07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2D86FB45-E629-4292-A468-1496ADE41B90}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2D86FB45-E629-4292-A468-1496ADE41B90}"/>
   </bookViews>
   <sheets>
     <sheet name="Options" sheetId="2" r:id="rId1"/>
@@ -486,7 +486,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -508,7 +508,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="4">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -516,7 +516,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="4">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -524,7 +524,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">

--- a/3d-single-material/input.xlsx
+++ b/3d-single-material/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\University\MSc Thesis\topology-optimization\3d-single-material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9D6BD7-13EB-48F3-BE19-CF9E264BFE07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C6653A-BD57-43C6-993A-B7E670EECD23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2D86FB45-E629-4292-A468-1496ADE41B90}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2D86FB45-E629-4292-A468-1496ADE41B90}"/>
   </bookViews>
   <sheets>
     <sheet name="Options" sheetId="2" r:id="rId1"/>

--- a/3d-single-material/input.xlsx
+++ b/3d-single-material/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\University\MSc Thesis\topology-optimization\3d-single-material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C6653A-BD57-43C6-993A-B7E670EECD23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A3F007-132B-4AFE-BA87-1573984937E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2D86FB45-E629-4292-A468-1496ADE41B90}"/>
   </bookViews>
@@ -486,7 +486,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -508,7 +508,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="4">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -564,7 +564,8 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>8.75</v>
+        <f>2*SQRT(3)</f>
+        <v>3.4641016151377544</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">

--- a/3d-single-material/input.xlsx
+++ b/3d-single-material/input.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\University\MSc Thesis\topology-optimization\3d-single-material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A3F007-132B-4AFE-BA87-1573984937E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9F3299-6509-4761-900D-890026C1C468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2D86FB45-E629-4292-A468-1496ADE41B90}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{2D86FB45-E629-4292-A468-1496ADE41B90}"/>
   </bookViews>
   <sheets>
     <sheet name="Options" sheetId="2" r:id="rId1"/>
-    <sheet name="BC" sheetId="1" r:id="rId2"/>
-    <sheet name="Preserved" sheetId="3" r:id="rId3"/>
+    <sheet name="PointBC" sheetId="4" r:id="rId2"/>
+    <sheet name="LineBC" sheetId="1" r:id="rId3"/>
+    <sheet name="PlaneBC" sheetId="5" r:id="rId4"/>
+    <sheet name="PreservedVolume" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>ForceX</t>
   </si>
@@ -114,6 +116,21 @@
   </si>
   <si>
     <t>NumElZ</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>DisZ</t>
+  </si>
+  <si>
+    <t>ForceZ</t>
   </si>
 </sst>
 </file>
@@ -485,7 +502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629BA73F-B8A9-4E08-B2A9-24B4F3A921F5}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -599,11 +616,55 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1327FC-5046-4DDC-9FE8-2E9DBEC40781}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FD6F66-486A-43CF-96DE-A1602AFF4D49}">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -745,7 +806,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D73A997-7B04-44B2-BBB4-C23AFDAA7229}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA6D0551-57CC-4FE8-94A6-D48EF408F42E}">
   <dimension ref="A1:E1"/>
   <sheetViews>

--- a/3d-single-material/input.xlsx
+++ b/3d-single-material/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\University\MSc Thesis\topology-optimization\3d-single-material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9F3299-6509-4761-900D-890026C1C468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51635BAB-566C-4B6F-A930-8F14C3220E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{2D86FB45-E629-4292-A468-1496ADE41B90}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2D86FB45-E629-4292-A468-1496ADE41B90}"/>
   </bookViews>
   <sheets>
     <sheet name="Options" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>ForceX</t>
   </si>
@@ -46,18 +46,6 @@
     <t>ForceY</t>
   </si>
   <si>
-    <t>StartX</t>
-  </si>
-  <si>
-    <t>StartY</t>
-  </si>
-  <si>
-    <t>EndX</t>
-  </si>
-  <si>
-    <t>EndY</t>
-  </si>
-  <si>
     <t>NumElX</t>
   </si>
   <si>
@@ -131,6 +119,18 @@
   </si>
   <si>
     <t>ForceZ</t>
+  </si>
+  <si>
+    <t>StartPosition</t>
+  </si>
+  <si>
+    <t>EndPosition</t>
+  </si>
+  <si>
+    <t>Displacement</t>
+  </si>
+  <si>
+    <t>Force</t>
   </si>
 </sst>
 </file>
@@ -502,7 +502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629BA73F-B8A9-4E08-B2A9-24B4F3A921F5}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -514,47 +514,47 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" s="4">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>0.3</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2">
         <v>3</v>
@@ -562,7 +562,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2">
         <v>3</v>
@@ -570,7 +570,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2">
         <v>500</v>
@@ -578,16 +578,16 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2">
-        <f>2*SQRT(3)</f>
-        <v>3.4641016151377544</v>
+        <f>SQRT(3)</f>
+        <v>1.7320508075688772</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2">
         <v>0.5</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2">
         <v>2</v>
@@ -603,7 +603,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2">
         <v>0.2</v>
@@ -619,7 +619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1327FC-5046-4DDC-9FE8-2E9DBEC40781}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -627,22 +627,22 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -651,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -661,144 +661,36 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FD6F66-486A-43CF-96DE-A1602AFF4D49}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="8.5546875" style="2" customWidth="1"/>
+    <col min="1" max="4" width="14.44140625" style="2" customWidth="1"/>
     <col min="5" max="6" width="8.33203125" style="2" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>-1</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -835,19 +727,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/3d-single-material/input.xlsx
+++ b/3d-single-material/input.xlsx
@@ -8,16 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\University\MSc Thesis\topology-optimization\3d-single-material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51635BAB-566C-4B6F-A930-8F14C3220E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C797BBF-0309-4CCB-A7D2-8619904D8B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2D86FB45-E629-4292-A468-1496ADE41B90}"/>
   </bookViews>
   <sheets>
     <sheet name="Options" sheetId="2" r:id="rId1"/>
-    <sheet name="PointBC" sheetId="4" r:id="rId2"/>
-    <sheet name="LineBC" sheetId="1" r:id="rId3"/>
-    <sheet name="PlaneBC" sheetId="5" r:id="rId4"/>
-    <sheet name="PreservedVolume" sheetId="3" r:id="rId5"/>
+    <sheet name="BC" sheetId="5" r:id="rId2"/>
+    <sheet name="PreservedVolume" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>ForceX</t>
   </si>
@@ -106,15 +104,6 @@
     <t>NumElZ</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
     <t>DisZ</t>
   </si>
   <si>
@@ -127,10 +116,16 @@
     <t>EndPosition</t>
   </si>
   <si>
-    <t>Displacement</t>
-  </si>
-  <si>
-    <t>Force</t>
+    <t>0, 0, 0</t>
+  </si>
+  <si>
+    <t>1, 1, 0</t>
+  </si>
+  <si>
+    <t>1, 1, 1</t>
+  </si>
+  <si>
+    <t>0, 0, 1</t>
   </si>
 </sst>
 </file>
@@ -174,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -186,6 +181,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,7 +524,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -533,7 +532,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -541,7 +540,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="2">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -549,7 +548,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -581,8 +580,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="2">
-        <f>SQRT(3)</f>
-        <v>1.7320508075688772</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -616,81 +614,209 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1327FC-5046-4DDC-9FE8-2E9DBEC40781}">
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D73A997-7B04-44B2-BBB4-C23AFDAA7229}">
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FD6F66-486A-43CF-96DE-A1602AFF4D49}">
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="14.44140625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="8.33203125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="2" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -698,24 +824,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D73A997-7B04-44B2-BBB4-C23AFDAA7229}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA6D0551-57CC-4FE8-94A6-D48EF408F42E}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/3d-single-material/input.xlsx
+++ b/3d-single-material/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\University\MSc Thesis\topology-optimization\3d-single-material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C797BBF-0309-4CCB-A7D2-8619904D8B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612DB249-B44B-4F11-9B24-7FAFA022509C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2D86FB45-E629-4292-A468-1496ADE41B90}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{2D86FB45-E629-4292-A468-1496ADE41B90}"/>
   </bookViews>
   <sheets>
     <sheet name="Options" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>ForceX</t>
   </si>
@@ -74,18 +74,6 @@
     <t>MaxIteration</t>
   </si>
   <si>
-    <t>Top</t>
-  </si>
-  <si>
-    <t>Bottom</t>
-  </si>
-  <si>
-    <t>Left</t>
-  </si>
-  <si>
-    <t>Right</t>
-  </si>
-  <si>
     <t>Option</t>
   </si>
   <si>
@@ -98,34 +86,37 @@
     <t>DisY</t>
   </si>
   <si>
+    <t>NumElZ</t>
+  </si>
+  <si>
+    <t>DisZ</t>
+  </si>
+  <si>
+    <t>ForceZ</t>
+  </si>
+  <si>
+    <t>StartPosition</t>
+  </si>
+  <si>
+    <t>EndPosition</t>
+  </si>
+  <si>
+    <t>0, 0, 0</t>
+  </si>
+  <si>
+    <t>1, 1, 0</t>
+  </si>
+  <si>
+    <t>1, 1, 1</t>
+  </si>
+  <si>
+    <t>0, 0, 1</t>
+  </si>
+  <si>
     <t>Density</t>
   </si>
   <si>
-    <t>NumElZ</t>
-  </si>
-  <si>
-    <t>DisZ</t>
-  </si>
-  <si>
-    <t>ForceZ</t>
-  </si>
-  <si>
-    <t>StartPosition</t>
-  </si>
-  <si>
-    <t>EndPosition</t>
-  </si>
-  <si>
-    <t>0, 0, 0</t>
-  </si>
-  <si>
-    <t>1, 1, 0</t>
-  </si>
-  <si>
-    <t>1, 1, 1</t>
-  </si>
-  <si>
-    <t>0, 0, 1</t>
+    <t>0, 0, 0.999</t>
   </si>
 </sst>
 </file>
@@ -501,7 +492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629BA73F-B8A9-4E08-B2A9-24B4F3A921F5}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -513,10 +504,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -537,7 +528,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2">
         <v>30</v>
@@ -618,7 +609,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -628,19 +619,19 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
@@ -649,7 +640,7 @@
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -657,10 +648,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -680,10 +671,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -826,34 +817,53 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA6D0551-57CC-4FE8-94A6-D48EF408F42E}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="8.88671875" style="2"/>
+    <col min="1" max="3" width="13.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="2"/>
     <col min="5" max="5" width="9.44140625" style="2" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/3d-single-material/input.xlsx
+++ b/3d-single-material/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\University\MSc Thesis\topology-optimization\3d-single-material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612DB249-B44B-4F11-9B24-7FAFA022509C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341CE3D7-1122-4A5A-82CC-3605F0C45367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{2D86FB45-E629-4292-A468-1496ADE41B90}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{2D86FB45-E629-4292-A468-1496ADE41B90}"/>
   </bookViews>
   <sheets>
     <sheet name="Options" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>ForceX</t>
   </si>
@@ -116,14 +116,17 @@
     <t>Density</t>
   </si>
   <si>
-    <t>0, 0, 0.999</t>
+    <t>0, 0, 0.5</t>
+  </si>
+  <si>
+    <t>1, 1, 0.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +138,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -160,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -175,7 +184,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -609,7 +617,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection sqref="A1:B3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -648,10 +656,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -693,14 +701,24 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
+      <c r="A4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -810,6 +828,7 @@
       <c r="K12" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -857,7 +876,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>23</v>

--- a/3d-single-material/input.xlsx
+++ b/3d-single-material/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\University\MSc Thesis\topology-optimization\3d-single-material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341CE3D7-1122-4A5A-82CC-3605F0C45367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A6E373-8ECB-4CA8-9BC6-E14AE1D00C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{2D86FB45-E629-4292-A468-1496ADE41B90}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{2D86FB45-E629-4292-A468-1496ADE41B90}"/>
   </bookViews>
   <sheets>
     <sheet name="Options" sheetId="2" r:id="rId1"/>
@@ -616,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D73A997-7B04-44B2-BBB4-C23AFDAA7229}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -838,7 +838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA6D0551-57CC-4FE8-94A6-D48EF408F42E}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
